--- a/data/state_election_results/newjersey_president.xlsx
+++ b/data/state_election_results/newjersey_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDE882F-2A98-2545-8344-274A446D3AB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0C5F0C-132D-1D43-9B88-3EFE783B739A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18280" yWindow="3200" windowWidth="13660" windowHeight="16440" xr2:uid="{76AB81DF-AFCA-CF45-A2C5-ACE987B5D8DA}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>biden.votes</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>Warren</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -119,7 +119,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -162,7 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,32 +479,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183EDB79-2265-E14C-96C9-9191B4F1B4B4}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>73808</v>
@@ -521,7 +519,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>285967</v>
@@ -538,7 +536,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>154577</v>
@@ -555,7 +553,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>175065</v>
@@ -572,7 +570,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>23941</v>
@@ -589,7 +587,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>32742</v>
@@ -606,7 +604,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>266820</v>
@@ -623,7 +621,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>86702</v>
@@ -640,7 +638,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>181452</v>
@@ -657,7 +655,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>39457</v>
@@ -674,7 +672,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <v>122532</v>
@@ -691,7 +689,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <v>218159</v>
@@ -708,7 +706,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>181291</v>
@@ -725,7 +723,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>153881</v>
@@ -742,7 +740,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>116330</v>
@@ -759,7 +757,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>129097</v>
@@ -776,7 +774,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <v>14467</v>
@@ -793,7 +791,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <v>108207</v>
@@ -810,7 +808,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>34481</v>
@@ -827,7 +825,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>170245</v>
@@ -844,7 +842,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <v>24901</v>
